--- a/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H2">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I2">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J2">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N2">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O2">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P2">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q2">
-        <v>451.3600795349341</v>
+        <v>451.6382911754499</v>
       </c>
       <c r="R2">
-        <v>451.3600795349341</v>
+        <v>1806.5531647018</v>
       </c>
       <c r="S2">
-        <v>0.02797897366239531</v>
+        <v>0.0264580411216585</v>
       </c>
       <c r="T2">
-        <v>0.02797897366239531</v>
+        <v>0.01428729828981951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H3">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I3">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J3">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N3">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O3">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P3">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q3">
-        <v>164.1805524037881</v>
+        <v>174.108107495945</v>
       </c>
       <c r="R3">
-        <v>164.1805524037881</v>
+        <v>1044.64864497567</v>
       </c>
       <c r="S3">
-        <v>0.01017724774489625</v>
+        <v>0.01019966543525939</v>
       </c>
       <c r="T3">
-        <v>0.01017724774489625</v>
+        <v>0.00826170360797923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H4">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I4">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J4">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N4">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O4">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P4">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q4">
-        <v>412.2116524626799</v>
+        <v>461.5632451735983</v>
       </c>
       <c r="R4">
-        <v>412.2116524626799</v>
+        <v>2769.37947104159</v>
       </c>
       <c r="S4">
-        <v>0.02555223532278096</v>
+        <v>0.02703946844114052</v>
       </c>
       <c r="T4">
-        <v>0.02555223532278096</v>
+        <v>0.02190190211590308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H5">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I5">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J5">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N5">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O5">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P5">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q5">
-        <v>627.6185374004405</v>
+        <v>633.3462914085483</v>
       </c>
       <c r="R5">
-        <v>627.6185374004405</v>
+        <v>3800.07774845129</v>
       </c>
       <c r="S5">
-        <v>0.03890490835177832</v>
+        <v>0.0371029262791794</v>
       </c>
       <c r="T5">
-        <v>0.03890490835177832</v>
+        <v>0.03005327790925609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H6">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I6">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J6">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N6">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O6">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P6">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q6">
-        <v>322.036214636693</v>
+        <v>327.2640117215117</v>
       </c>
       <c r="R6">
-        <v>322.036214636693</v>
+        <v>1963.58407032907</v>
       </c>
       <c r="S6">
-        <v>0.01996242728630622</v>
+        <v>0.01917190116283338</v>
       </c>
       <c r="T6">
-        <v>0.01996242728630622</v>
+        <v>0.01552919220872205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H7">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I7">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J7">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N7">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O7">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P7">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q7">
-        <v>129.3051596182592</v>
+        <v>129.4934707579812</v>
       </c>
       <c r="R7">
-        <v>129.3051596182592</v>
+        <v>517.9738830319249</v>
       </c>
       <c r="S7">
-        <v>0.008015386870497666</v>
+        <v>0.007586034313839836</v>
       </c>
       <c r="T7">
-        <v>0.008015386870497666</v>
+        <v>0.00409644593793881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H8">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I8">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J8">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N8">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O8">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P8">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q8">
-        <v>668.1582647625664</v>
+        <v>712.50297595106</v>
       </c>
       <c r="R8">
-        <v>668.1582647625664</v>
+        <v>4275.01785570636</v>
       </c>
       <c r="S8">
-        <v>0.04141789081428212</v>
+        <v>0.0417401123982508</v>
       </c>
       <c r="T8">
-        <v>0.04141789081428212</v>
+        <v>0.03380938712028622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H9">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I9">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J9">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N9">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O9">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P9">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q9">
-        <v>243.0400870074826</v>
+        <v>274.672336584226</v>
       </c>
       <c r="R9">
-        <v>243.0400870074826</v>
+        <v>2472.051029258034</v>
       </c>
       <c r="S9">
-        <v>0.01506560394152517</v>
+        <v>0.01609095623272633</v>
       </c>
       <c r="T9">
-        <v>0.01506560394152517</v>
+        <v>0.01955045172916061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H10">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I10">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J10">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N10">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O10">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P10">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q10">
-        <v>610.2059861123746</v>
+        <v>728.1605483890687</v>
       </c>
       <c r="R10">
-        <v>610.2059861123746</v>
+        <v>6553.444935501619</v>
       </c>
       <c r="S10">
-        <v>0.03782553661295313</v>
+        <v>0.04265737008769957</v>
       </c>
       <c r="T10">
-        <v>0.03782553661295313</v>
+        <v>0.05182854534750096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H11">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I11">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J11">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N11">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O11">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P11">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q11">
-        <v>929.0775411825973</v>
+        <v>999.1648765247286</v>
       </c>
       <c r="R11">
-        <v>929.0775411825973</v>
+        <v>8992.483888722558</v>
       </c>
       <c r="S11">
-        <v>0.05759179252594704</v>
+        <v>0.05853344569523761</v>
       </c>
       <c r="T11">
-        <v>0.05759179252594704</v>
+        <v>0.0711179179195552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H12">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I12">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J12">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N12">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O12">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P12">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q12">
-        <v>476.7172998198315</v>
+        <v>516.2905511540794</v>
       </c>
       <c r="R12">
-        <v>476.7172998198315</v>
+        <v>4646.614960386715</v>
       </c>
       <c r="S12">
-        <v>0.02955082068801997</v>
+        <v>0.03024552368579348</v>
       </c>
       <c r="T12">
-        <v>0.02955082068801997</v>
+        <v>0.03674819832271096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H13">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I13">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J13">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N13">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O13">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P13">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q13">
-        <v>191.4132751048841</v>
+        <v>204.2884429510225</v>
       </c>
       <c r="R13">
-        <v>191.4132751048841</v>
+        <v>1225.730657706135</v>
       </c>
       <c r="S13">
-        <v>0.01186535368460266</v>
+        <v>0.01196770098967983</v>
       </c>
       <c r="T13">
-        <v>0.01186535368460266</v>
+        <v>0.009693808005099534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H14">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I14">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J14">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N14">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O14">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P14">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q14">
-        <v>739.2997089350437</v>
+        <v>747.0823355608666</v>
       </c>
       <c r="R14">
-        <v>739.2997089350437</v>
+        <v>4482.494013365199</v>
       </c>
       <c r="S14">
-        <v>0.04582781690889247</v>
+        <v>0.04376585320985409</v>
       </c>
       <c r="T14">
-        <v>0.04582781690889247</v>
+        <v>0.03545023213410388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H15">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I15">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J15">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N15">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O15">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P15">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q15">
-        <v>268.9175230782031</v>
+        <v>288.0027981011533</v>
       </c>
       <c r="R15">
-        <v>268.9175230782031</v>
+        <v>2592.02518291038</v>
       </c>
       <c r="S15">
-        <v>0.01666969817825744</v>
+        <v>0.01687188625101067</v>
       </c>
       <c r="T15">
-        <v>0.01666969817825744</v>
+        <v>0.02049927878489945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H16">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I16">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J16">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N16">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O16">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P16">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q16">
-        <v>675.1770227426723</v>
+        <v>763.4998049343623</v>
       </c>
       <c r="R16">
-        <v>675.1770227426723</v>
+        <v>6871.49824440926</v>
       </c>
       <c r="S16">
-        <v>0.04185297059553006</v>
+        <v>0.04472762746213683</v>
       </c>
       <c r="T16">
-        <v>0.04185297059553006</v>
+        <v>0.05434390032581827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H17">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I17">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J17">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N17">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O17">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P17">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q17">
-        <v>1028.000089198121</v>
+        <v>1047.656577950562</v>
       </c>
       <c r="R17">
-        <v>1028.000089198121</v>
+        <v>9428.90920155506</v>
       </c>
       <c r="S17">
-        <v>0.06372381768952635</v>
+        <v>0.06137420445164137</v>
       </c>
       <c r="T17">
-        <v>0.06372381768952635</v>
+        <v>0.07456942919943219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H18">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I18">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J18">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N18">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O18">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P18">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q18">
-        <v>527.4752698394619</v>
+        <v>541.3472838753311</v>
       </c>
       <c r="R18">
-        <v>527.4752698394619</v>
+        <v>4872.125554877981</v>
       </c>
       <c r="S18">
-        <v>0.03269721304907939</v>
+        <v>0.03171340645319096</v>
       </c>
       <c r="T18">
-        <v>0.03269721304907939</v>
+        <v>0.03853167040311501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H19">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I19">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J19">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N19">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O19">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P19">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q19">
-        <v>211.7938010115481</v>
+        <v>214.2030170249083</v>
       </c>
       <c r="R19">
-        <v>211.7938010115481</v>
+        <v>1285.21810214945</v>
       </c>
       <c r="S19">
-        <v>0.01312870466184428</v>
+        <v>0.01254852022860635</v>
       </c>
       <c r="T19">
-        <v>0.01312870466184428</v>
+        <v>0.01016427014253737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H20">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I20">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J20">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N20">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O20">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P20">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q20">
-        <v>652.9237646351252</v>
+        <v>657.6698978401465</v>
       </c>
       <c r="R20">
-        <v>652.9237646351252</v>
+        <v>3946.01938704088</v>
       </c>
       <c r="S20">
-        <v>0.04047353242471292</v>
+        <v>0.03852786077160104</v>
       </c>
       <c r="T20">
-        <v>0.04047353242471292</v>
+        <v>0.03120747130039202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H21">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I21">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J21">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N21">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O21">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P21">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q21">
-        <v>237.4985941729899</v>
+        <v>253.5339972436413</v>
       </c>
       <c r="R21">
-        <v>237.4985941729899</v>
+        <v>2281.805975192772</v>
       </c>
       <c r="S21">
-        <v>0.01472209708503406</v>
+        <v>0.01485262223305336</v>
       </c>
       <c r="T21">
-        <v>0.01472209708503406</v>
+        <v>0.01804588054426448</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H22">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I22">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J22">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N22">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O22">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P22">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q22">
-        <v>596.2928405846487</v>
+        <v>672.1224887952716</v>
       </c>
       <c r="R22">
-        <v>596.2928405846487</v>
+        <v>6049.102399157444</v>
       </c>
       <c r="S22">
-        <v>0.03696308654275105</v>
+        <v>0.03937452779093191</v>
       </c>
       <c r="T22">
-        <v>0.03696308654275105</v>
+        <v>0.04783990421709571</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H23">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I23">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J23">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N23">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O23">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P23">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q23">
-        <v>907.893889544944</v>
+        <v>922.2707615955514</v>
       </c>
       <c r="R23">
-        <v>907.893889544944</v>
+        <v>8300.436854359963</v>
       </c>
       <c r="S23">
-        <v>0.05627865727514251</v>
+        <v>0.05402880626461111</v>
       </c>
       <c r="T23">
-        <v>0.05627865727514251</v>
+        <v>0.06564479783445909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H24">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I24">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J24">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N24">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O24">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P24">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q24">
-        <v>465.8477945725388</v>
+        <v>476.5576643102458</v>
       </c>
       <c r="R24">
-        <v>465.8477945725388</v>
+        <v>4289.018978792213</v>
       </c>
       <c r="S24">
-        <v>0.02887704023018546</v>
+        <v>0.0279178770390481</v>
       </c>
       <c r="T24">
-        <v>0.02887704023018546</v>
+        <v>0.03392011633979031</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H25">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I25">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J25">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N25">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O25">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P25">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q25">
-        <v>187.0489115734152</v>
+        <v>188.5667343721383</v>
       </c>
       <c r="R25">
-        <v>187.0489115734152</v>
+        <v>1131.40040623283</v>
       </c>
       <c r="S25">
-        <v>0.01159481488900091</v>
+        <v>0.01104668605314679</v>
       </c>
       <c r="T25">
-        <v>0.01159481488900091</v>
+        <v>0.008947788199601443</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H26">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I26">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J26">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N26">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O26">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P26">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q26">
-        <v>374.7837582275333</v>
+        <v>397.5184625192333</v>
       </c>
       <c r="R26">
-        <v>374.7837582275333</v>
+        <v>2385.1107751154</v>
       </c>
       <c r="S26">
-        <v>0.02323214962064471</v>
+        <v>0.02328757333790047</v>
       </c>
       <c r="T26">
-        <v>0.02323214962064471</v>
+        <v>0.01886287642354619</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H27">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I27">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J27">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N27">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O27">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P27">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q27">
-        <v>136.3261999624886</v>
+        <v>153.2447282620567</v>
       </c>
       <c r="R27">
-        <v>136.3261999624886</v>
+        <v>1379.20255435851</v>
       </c>
       <c r="S27">
-        <v>0.008450608131261838</v>
+        <v>0.008977439250074099</v>
       </c>
       <c r="T27">
-        <v>0.008450608131261838</v>
+        <v>0.01090755516151869</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H28">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I28">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J28">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N28">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O28">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P28">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q28">
-        <v>342.2771292807428</v>
+        <v>406.2541090111412</v>
       </c>
       <c r="R28">
-        <v>342.2771292807428</v>
+        <v>3656.28698110027</v>
       </c>
       <c r="S28">
-        <v>0.02121712402047948</v>
+        <v>0.02379932820595125</v>
       </c>
       <c r="T28">
-        <v>0.02121712402047948</v>
+        <v>0.02891609488879117</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H29">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I29">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J29">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N29">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O29">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P29">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q29">
-        <v>521.1387644706385</v>
+        <v>557.4523881660411</v>
       </c>
       <c r="R29">
-        <v>521.1387644706385</v>
+        <v>5017.07149349437</v>
       </c>
       <c r="S29">
-        <v>0.03230442484102917</v>
+        <v>0.03265688161886656</v>
       </c>
       <c r="T29">
-        <v>0.03230442484102917</v>
+        <v>0.03967798920588993</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H30">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I30">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J30">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N30">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O30">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P30">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q30">
-        <v>267.4005705849468</v>
+        <v>288.0479563387456</v>
       </c>
       <c r="R30">
-        <v>267.4005705849468</v>
+        <v>2592.43160704871</v>
       </c>
       <c r="S30">
-        <v>0.01657566510847499</v>
+        <v>0.01687453172755804</v>
       </c>
       <c r="T30">
-        <v>0.01657566510847499</v>
+        <v>0.02050249302902466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H31">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I31">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J31">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N31">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O31">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P31">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q31">
-        <v>107.367655841153</v>
+        <v>113.9762646520042</v>
       </c>
       <c r="R31">
-        <v>107.367655841153</v>
+        <v>683.8575879120249</v>
       </c>
       <c r="S31">
-        <v>0.006655521724623937</v>
+        <v>0.006676999616678381</v>
       </c>
       <c r="T31">
-        <v>0.006655521724623937</v>
+        <v>0.005408353065473354</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H32">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I32">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J32">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.965748731539991</v>
+        <v>8.96998</v>
       </c>
       <c r="N32">
-        <v>8.965748731539991</v>
+        <v>17.93996</v>
       </c>
       <c r="O32">
-        <v>0.2142485719595492</v>
+        <v>0.207419632623401</v>
       </c>
       <c r="P32">
-        <v>0.2142485719595492</v>
+        <v>0.1517829129945491</v>
       </c>
       <c r="Q32">
-        <v>569.7574758410685</v>
+        <v>574.2374751910299</v>
       </c>
       <c r="R32">
-        <v>569.7574758410685</v>
+        <v>2296.94990076412</v>
       </c>
       <c r="S32">
-        <v>0.03531820852862172</v>
+        <v>0.03364019178413607</v>
       </c>
       <c r="T32">
-        <v>0.03531820852862172</v>
+        <v>0.01816564772640129</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H33">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I33">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J33">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.26125779881663</v>
+        <v>3.457958</v>
       </c>
       <c r="N33">
-        <v>3.26125779881663</v>
+        <v>10.373874</v>
       </c>
       <c r="O33">
-        <v>0.0779321222476855</v>
+        <v>0.07996097850688078</v>
       </c>
       <c r="P33">
-        <v>0.0779321222476855</v>
+        <v>0.08776924891462495</v>
       </c>
       <c r="Q33">
-        <v>207.247165536124</v>
+        <v>221.370512669663</v>
       </c>
       <c r="R33">
-        <v>207.247165536124</v>
+        <v>1328.223076017978</v>
       </c>
       <c r="S33">
-        <v>0.01284686716671074</v>
+        <v>0.01296840910475693</v>
       </c>
       <c r="T33">
-        <v>0.01284686716671074</v>
+        <v>0.0105043790868025</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H34">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I34">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J34">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.18811026442854</v>
+        <v>9.167099333333335</v>
       </c>
       <c r="N34">
-        <v>8.18811026442854</v>
+        <v>27.501298</v>
       </c>
       <c r="O34">
-        <v>0.195665859453527</v>
+        <v>0.2119777720733184</v>
       </c>
       <c r="P34">
-        <v>0.195665859453527</v>
+        <v>0.2326776158682164</v>
       </c>
       <c r="Q34">
-        <v>520.3399265203176</v>
+        <v>586.8566012408844</v>
       </c>
       <c r="R34">
-        <v>520.3399265203176</v>
+        <v>3521.139607445306</v>
       </c>
       <c r="S34">
-        <v>0.0322549063590323</v>
+        <v>0.03437945008545831</v>
       </c>
       <c r="T34">
-        <v>0.0322549063590323</v>
+        <v>0.0278472689731072</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H35">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I35">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J35">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.4669202278299</v>
+        <v>12.57887933333333</v>
       </c>
       <c r="N35">
-        <v>12.4669202278299</v>
+        <v>37.736638</v>
       </c>
       <c r="O35">
-        <v>0.297913753276397</v>
+        <v>0.2908709417561791</v>
       </c>
       <c r="P35">
-        <v>0.297913753276397</v>
+        <v>0.3192747833473873</v>
       </c>
       <c r="Q35">
-        <v>792.2507325609899</v>
+        <v>805.2709046292142</v>
       </c>
       <c r="R35">
-        <v>792.2507325609899</v>
+        <v>4831.625427775285</v>
       </c>
       <c r="S35">
-        <v>0.04911015259297362</v>
+        <v>0.04717467744664303</v>
       </c>
       <c r="T35">
-        <v>0.04911015259297362</v>
+        <v>0.03821137127879484</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H36">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I36">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J36">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.39687893059537</v>
+        <v>6.499784666666668</v>
       </c>
       <c r="N36">
-        <v>6.39687893059537</v>
+        <v>19.499354</v>
       </c>
       <c r="O36">
-        <v>0.1528619880966461</v>
+        <v>0.1502994374225154</v>
       </c>
       <c r="P36">
-        <v>0.1528619880966461</v>
+        <v>0.1649763294696261</v>
       </c>
       <c r="Q36">
-        <v>406.5103430721407</v>
+        <v>416.1012551055897</v>
       </c>
       <c r="R36">
-        <v>406.5103430721407</v>
+        <v>2496.607530633538</v>
       </c>
       <c r="S36">
-        <v>0.02519882173458011</v>
+        <v>0.0243761973540915</v>
       </c>
       <c r="T36">
-        <v>0.02519882173458011</v>
+        <v>0.01974465916626313</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H37">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I37">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J37">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.56849824207649</v>
+        <v>2.5718675</v>
       </c>
       <c r="N37">
-        <v>2.56849824207649</v>
+        <v>5.143735</v>
       </c>
       <c r="O37">
-        <v>0.06137770496619521</v>
+        <v>0.05947123761770536</v>
       </c>
       <c r="P37">
-        <v>0.06137770496619521</v>
+        <v>0.04351910940559605</v>
       </c>
       <c r="Q37">
-        <v>163.223520859965</v>
+        <v>164.6450381969487</v>
       </c>
       <c r="R37">
-        <v>163.223520859965</v>
+        <v>658.5801527877949</v>
       </c>
       <c r="S37">
-        <v>0.01011792313562576</v>
+        <v>0.009645296415754167</v>
       </c>
       <c r="T37">
-        <v>0.01011792313562576</v>
+        <v>0.005208444054945536</v>
       </c>
     </row>
   </sheetData>
